--- a/pert8-latihan.xlsx
+++ b/pert8-latihan.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH S1 SI STMIK WP\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Praktek\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH S1 SI STMIK WP\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Teori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE6F4F-B6F3-484C-A050-6A8E16013498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE97630-93AC-4D99-A5AF-6B171BDD45F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="300" windowWidth="14880" windowHeight="13020" activeTab="4" xr2:uid="{671F22B8-7224-45F4-8D2D-83F8E51B347B}"/>
+    <workbookView xWindow="10155" yWindow="435" windowWidth="17730" windowHeight="13020" activeTab="4" xr2:uid="{671F22B8-7224-45F4-8D2D-83F8E51B347B}"/>
   </bookViews>
   <sheets>
     <sheet name="Perulangan 1a" sheetId="1" r:id="rId1"/>
-    <sheet name="Per 1b" sheetId="2" r:id="rId2"/>
-    <sheet name="Per1c" sheetId="3" r:id="rId3"/>
-    <sheet name="Per 1d" sheetId="4" r:id="rId4"/>
-    <sheet name="Perulangan 2a" sheetId="6" r:id="rId5"/>
+    <sheet name="Per. 1b" sheetId="2" r:id="rId2"/>
+    <sheet name="Per. 1c" sheetId="3" r:id="rId3"/>
+    <sheet name="Per. 1d" sheetId="4" r:id="rId4"/>
+    <sheet name="Per. 2" sheetId="6" r:id="rId5"/>
+    <sheet name="Per. 3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Per 1b'!$A$3:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Per. 1b'!$A$3:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Per. 2'!$B$3:$F$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Perulangan 1a'!$A$2:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Perulangan 2a'!$B$3:$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="120">
   <si>
     <t>Ali</t>
   </si>
@@ -242,9 +243,6 @@
     <t>gain berat=</t>
   </si>
   <si>
-    <t>total entropy - ((overweight/berat*entropi over)+(under/berat*entropi under)+(averg/berat*entropi avrg))</t>
-  </si>
-  <si>
     <t>gain kel=</t>
   </si>
   <si>
@@ -317,17 +315,101 @@
     <t>gain bernilai sama besar</t>
   </si>
   <si>
-    <t>jadi saya urutkan dari atas saja</t>
-  </si>
-  <si>
-    <t>tetapi gambarnya saya sampingkan</t>
+    <t>jadi gambarnya saya sampingkan</t>
+  </si>
+  <si>
+    <t>6. Menyiapkan Dataset</t>
+  </si>
+  <si>
+    <t>Menghitung entropi total data(3)</t>
+  </si>
+  <si>
+    <t>=(-B16/B15*IMLOG2(B16/B15))+(-B17/B15*IMLOG2(B17/B15))</t>
+  </si>
+  <si>
+    <t>S = (-(2/3)*log2*(2/3)) + (-(1/3)*log2*(1/3)) = 0,918295834</t>
+  </si>
+  <si>
+    <t>Jika perbandingan 1:1 maka entropi 1</t>
+  </si>
+  <si>
+    <t>jika salah satu perbandingan 0 maka entropi 0</t>
+  </si>
+  <si>
+    <t>Entropi tiap data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untuk yang jenis kelamin kurang lebih sama seperti di atas </t>
+  </si>
+  <si>
+    <t>Maka dari seluruh proses tadi menghasilkan Pohon Keputusan:</t>
+  </si>
+  <si>
+    <t>Dari pohon keputusan di atas maka dapat diperoleh aturan:</t>
+  </si>
+  <si>
+    <t>1. Jika Berat underweight ataupun average, maka tidak hipertensi</t>
+  </si>
+  <si>
+    <t>2. Jika Berat overweight, cek usia:</t>
+  </si>
+  <si>
+    <t>a. Jika Usia Muda maka hipertensi</t>
+  </si>
+  <si>
+    <t>b. jika Usia Tua, cek Jenis kelamin:</t>
+  </si>
+  <si>
+    <t>1) Jika Wanita maka hipertensi</t>
+  </si>
+  <si>
+    <t>2) Jika pria maka bisa saja dia hipertensi dan tidak hipertensi</t>
+  </si>
+  <si>
+    <t>atau bisa juga cek jenis kelamin:</t>
+  </si>
+  <si>
+    <t>a. Jika wanita maka hipertensi</t>
+  </si>
+  <si>
+    <t>b. jika pria maka cek usia:</t>
+  </si>
+  <si>
+    <t>1) jika usia muda maka hipertensi</t>
+  </si>
+  <si>
+    <t>2) Jika usia tua bisa hipertensi dan tidak hipertensi</t>
+  </si>
+  <si>
+    <t>Berdasarkan di soal</t>
+  </si>
+  <si>
+    <t>Karena dia overweight maka di cek kelamin</t>
+  </si>
+  <si>
+    <t>Karena dia wanita maka dia hipertensi</t>
+  </si>
+  <si>
+    <t>cara 2:</t>
+  </si>
+  <si>
+    <t>cara 1:</t>
+  </si>
+  <si>
+    <t>cek overweight lalu ke usia</t>
+  </si>
+  <si>
+    <t>usia muda fix hipertensi</t>
+  </si>
+  <si>
+    <t>total entropy - ((overweight/berat*entropi over)+(under/berat*entropi under) + (averg/berat*entropi avrg))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +453,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -469,17 +559,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,27 +574,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,22 +728,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552814</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426924</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66977</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA92014-D630-1F32-1086-FA3545C8DDC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D512B2DA-65E8-D92E-749E-006ED6380767}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,8 +759,116 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="2905125"/>
-          <a:ext cx="2610214" cy="2162477"/>
+          <a:off x="514350" y="2781300"/>
+          <a:ext cx="3008199" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>73400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>88528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>18667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136BC55D-D2DF-F2CE-5991-528C2C456ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73400" y="10604128"/>
+          <a:ext cx="4965325" cy="4502139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>572141</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1848A627-3A9B-33A1-87A4-FD6C70A81BD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="6600825"/>
+          <a:ext cx="4591691" cy="5992061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,7 +1185,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,32 +1198,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1210,8 +1407,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:6" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1248,27 +1445,27 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <f>(-D15/D14*IMLOG2(D15/D14))+(-D16/D14*IMLOG2(D16/D14))</f>
         <v>0.95443400292496372</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1292,16 +1489,17 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC06A172-136B-49C9-99E1-0DB94F132802}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,43 +1515,36 @@
     <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1373,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1393,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1412,11 +1603,8 @@
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1435,11 +1623,8 @@
       <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1459,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1479,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1499,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1519,21 +1704,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>8</v>
       </c>
@@ -1543,27 +1728,27 @@
       <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>0.95443400300000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1580,7 +1765,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <f>B34</f>
         <v>0.81127812445913294</v>
       </c>
@@ -1598,35 +1783,31 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <f>B41</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="11" t="str">
         <f>D16</f>
         <v>Jumlah</v>
       </c>
-      <c r="E20" s="14" t="str">
+      <c r="E20" s="11" t="str">
         <f>E16</f>
         <v xml:space="preserve">Ya </v>
       </c>
-      <c r="F20" s="14" t="str">
+      <c r="F20" s="11" t="str">
         <f>F16</f>
         <v>Tidak</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1643,7 +1824,7 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <f>B48</f>
         <v>0.81127812445913294</v>
       </c>
@@ -1661,7 +1842,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <f>B55</f>
         <v>0</v>
       </c>
@@ -1679,31 +1860,31 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <f>B62</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="11" t="str">
         <f>D16</f>
         <v>Jumlah</v>
       </c>
-      <c r="E25" s="14" t="str">
+      <c r="E25" s="11" t="str">
         <f>E16</f>
         <v xml:space="preserve">Ya </v>
       </c>
-      <c r="F25" s="14" t="str">
+      <c r="F25" s="11" t="str">
         <f>F16</f>
         <v>Tidak</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1720,7 +1901,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="12">
         <f>B69</f>
         <v>0.91829583405449056</v>
       </c>
@@ -1738,13 +1919,13 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="12">
         <f>B76</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1776,7 +1957,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1786,8 +1967,8 @@
         <v>0.81127812445913294</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1819,7 +2000,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1829,8 +2010,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1862,7 +2043,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1872,8 +2053,8 @@
         <v>0.81127812445913294</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1905,7 +2086,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1914,8 +2095,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1947,7 +2128,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1956,8 +2137,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1989,7 +2170,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1999,8 +2180,8 @@
         <v>0.91829583405449056</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2032,7 +2213,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2045,15 +2226,16 @@
   </sheetData>
   <autoFilter ref="A3:F11" xr:uid="{FC06A172-136B-49C9-99E1-0DB94F132802}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CAE135-120F-4386-AB61-515575CB1CB2}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,30 +2245,30 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2">
         <v>8</v>
       </c>
@@ -2096,27 +2278,27 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>0.95443400300000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2133,7 +2315,7 @@
       <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>0.81127812445913294</v>
       </c>
     </row>
@@ -2150,31 +2332,27 @@
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2191,7 +2369,7 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <v>0.81127812445913294</v>
       </c>
     </row>
@@ -2208,7 +2386,7 @@
       <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2225,27 +2403,27 @@
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2262,7 +2440,7 @@
       <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="12">
         <v>0.91829583405449056</v>
       </c>
     </row>
@@ -2279,23 +2457,23 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>70</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <f>A31</f>
         <v>4.8794940770433559E-2</v>
       </c>
@@ -2304,22 +2482,30 @@
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="19">
         <f>A37</f>
         <v>0.54879494077043356</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="15">
+        <v>71</v>
+      </c>
+      <c r="F25" s="12">
         <f>A43</f>
         <v>1.5712127459132086E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2334,59 +2520,68 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <f>F7-((C10/C7*F10)+(C11/C7*F11))</f>
         <v>4.8794940770433559E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+    <row r="36" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
         <f>F7-((C14/C7*F14)+(C15/C7*F15)+(C16/C7*F16))</f>
         <v>0.54879494077043356</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
         <f>F7-((C19/C7*F19)+(C20/C7*F20))</f>
         <v>1.5712127459132086E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A36:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2394,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CBB7CC-ADDD-4A12-B640-F726587FBCDF}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,30 +2603,30 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>73</v>
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2">
         <v>8</v>
       </c>
@@ -2441,24 +2636,24 @@
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>0.95443400300000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2475,7 +2670,7 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>0.81127812445913294</v>
       </c>
     </row>
@@ -2492,7 +2687,7 @@
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2509,23 +2704,23 @@
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>70</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>4.8794940770433559E-2</v>
       </c>
     </row>
@@ -2533,32 +2728,32 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="19">
         <v>0.54879494077043356</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="15">
+        <v>71</v>
+      </c>
+      <c r="F14" s="12">
         <v>1.5712127459132086E-2</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2635,16 +2830,17 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9D1E6-A2DA-46B2-A15A-1317FB8EE06D}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,25 +2853,25 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>75</v>
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2686,7 +2882,7 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2703,7 +2899,7 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2720,7 +2916,7 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2737,7 +2933,7 @@
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2747,184 +2943,184 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26" t="s">
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="G9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11">
         <f>COUNTA(B4:B7)</f>
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <f>COUNTIF(F4:F7, "ya")</f>
         <v>3</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <f>COUNTIF(F4:F7,"tidak")</f>
         <v>1</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <f>A25</f>
         <v>0.81127812445913294</v>
       </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="24">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="19">
         <f>A47</f>
         <v>0.122556248918265</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="1">
         <f>COUNTIF($C$4:$C$7,"muda")</f>
         <v>1</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="1">
         <f>COUNTIFS($C$4:$C$7,"muda",$F$4:$F$7,"ya")</f>
         <v>1</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="1">
         <f>COUNTIFS($C$4:$C$7,"muda",$F$4:$F$7,"tidak")</f>
         <v>0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="1">
         <f>COUNTIF($C$4:$C$7,B13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="1">
         <f>COUNTIFS($C$4:$C$7,B13,$F$4:$F$7,"ya")</f>
         <v>2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="1">
         <f>COUNTIFS($C$4:$C$7,B13,$F$4:$F$7,E9)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="1">
         <f>A34</f>
         <v>0.91829583405449056</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <f>A51</f>
         <v>0.122556248918265</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1">
         <f>COUNTIF($E$4:$E$7,"PRIA")</f>
         <v>3</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="1">
         <f>COUNTIFS($E$4:$E$7,"pria",$F$4:$F$7,"ya")</f>
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="1">
         <f>COUNTIFS($E$4:$E$7,"pria",$F$4:$F$7,"TIDAK")</f>
         <v>1</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="1">
         <f>A41</f>
         <v>0.91829583405449056</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1">
         <f>COUNTIF($E$4:$E$7,B16)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="1">
         <f>COUNTIFS($E$4:$E$7,B16,$F$4:$F$7,"ya")</f>
         <v>1</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="1">
         <f>COUNTIFS($E$4:$E$7,B16,$F$4:$F$7,E9)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>90</v>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <f>C10</f>
         <v>4</v>
       </c>
-      <c r="G19" t="s">
-        <v>91</v>
+      <c r="F19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2934,9 +3130,6 @@
       <c r="B20">
         <f>D10</f>
         <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2950,43 +3143,40 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <f>(-B20/B19*IMLOG2(B20/B19))+(-B21/B19*IMLOG2(B21/B19))</f>
         <v>0.81127812445913294</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="I26" s="16"/>
+      <c r="A26" s="7"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>85</v>
+      <c r="A27" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>81</v>
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <f>C13</f>
@@ -3012,8 +3202,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>83</v>
+      <c r="A33" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,17 +3212,17 @@
         <v>0.91829583405449056</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>84</v>
+    <row r="36" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <f>C15</f>
@@ -3064,13 +3254,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,17 +3274,17 @@
         <v>0.122556248918265</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,8 +3293,408 @@
         <v>0.122556248918265</v>
       </c>
     </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B3:F7" xr:uid="{EAD9D1E6-A2DA-46B2-A15A-1317FB8EE06D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1265CD22-A13D-433D-B5ED-4127F9F0A41A}">
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <f>A21</f>
+        <v>0.91829583405449056</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <f>A29</f>
+        <v>0.25162916738782393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <f>C9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f>D9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f>E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <f>(-B16/B15*IMLOG2(B16/B15))+(-B17/B15*IMLOG2(B17/B15))</f>
+        <v>0.91829583405449056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>F9-((C11/C9*F11)+(C12/C9*F12))</f>
+        <v>0.25162916738782393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>